--- a/URS/DbLayouts/L3-帳務作業/LoanCheque.xlsx
+++ b/URS/DbLayouts/L3-帳務作業/LoanCheque.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF28BB31-B6CC-4A01-9C09-55FBB2C62524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF095097-B768-41F2-91B0-81A96962BC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="169">
   <si>
     <t>備註說明</t>
   </si>
@@ -685,6 +685,14 @@
   <si>
     <t>9:其他</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>custNoChequeRange</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo &gt;= ,AND CustNo &lt;= ,AND StatusCode ^i ,AND ChequeNo &gt;= ,AND ChequeNo &lt;= ,AND  ChequeDate &gt;= ,AND ChequeDate &lt;=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -982,6 +990,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -998,33 +1033,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1369,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="64.5546875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1385,10 +1393,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="11" t="s">
         <v>59</v>
       </c>
@@ -1404,8 +1412,8 @@
       <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
@@ -1421,10 +1429,10 @@
       <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="19" t="s">
         <v>81</v>
       </c>
@@ -1440,10 +1448,10 @@
       <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="7"/>
       <c r="D4" s="26"/>
       <c r="E4" s="24"/>
@@ -1455,10 +1463,10 @@
       <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="7"/>
       <c r="D5" s="26"/>
       <c r="E5" s="24"/>
@@ -1470,10 +1478,10 @@
       <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="7"/>
       <c r="D6" s="26"/>
       <c r="E6" s="24"/>
@@ -1485,10 +1493,10 @@
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="7"/>
       <c r="D7" s="26"/>
       <c r="E7" s="24"/>
@@ -2172,11 +2180,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2256,6 +2264,17 @@
       </c>
       <c r="B7" s="3" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2286,387 +2305,387 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="31">
         <v>7</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="31">
         <v>0</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="31">
         <v>7</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="31">
         <v>7</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="31">
         <f>F2</f>
         <v>7</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="31">
         <f>E3+D3</f>
         <v>14</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="31">
         <v>7</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="31">
         <f>F3</f>
         <v>14</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="31">
         <f t="shared" ref="F4:F14" si="0">E4+D4</f>
         <v>21</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="31">
         <v>9</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="31">
         <f t="shared" ref="E5:E14" si="1">F4</f>
         <v>21</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="31">
         <v>10</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="31">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="31">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="31">
         <v>7</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="31">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="31">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="31">
         <v>8</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="31">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="31">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="31">
         <v>6</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="31">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="31">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="31">
         <v>1</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="31">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="31">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39" t="s">
+      <c r="H10" s="33"/>
+      <c r="I10" s="33" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="31">
         <v>6</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="31">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="31">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39" t="s">
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="31">
         <v>10</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="31">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="31">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39" t="s">
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="31">
         <v>7</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="31">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="31">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39" t="s">
+      <c r="H13" s="33"/>
+      <c r="I13" s="33" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="31">
         <v>10</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="31">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="31">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39" t="s">
+      <c r="H14" s="33"/>
+      <c r="I14" s="33" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33" t="s">
         <v>166</v>
       </c>
     </row>
